--- a/Product_Backlog/Product Backlog.xlsx
+++ b/Product_Backlog/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ubaid\Desktop\Agile Resit\Product_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6DA48A-D3D7-4145-925C-5702EC509FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFCA0BD-8F1E-4F23-BDC0-E464D4DE62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBAD4E8D-B292-467C-A53F-66ECD02A7757}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Sprint</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Story Points to Complete</t>
+  </si>
+  <si>
+    <t>As a non-technical user (admin), I can edit social media contents.</t>
   </si>
 </sst>
 </file>
@@ -682,9 +685,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49A5C760-2CD9-4716-89DB-F23B22A6F84E}" name="Table_2" displayName="Table_2" ref="A3:E20" headerRowDxfId="9" dataDxfId="7" totalsRowDxfId="5" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E20">
-    <sortCondition ref="A3:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49A5C760-2CD9-4716-89DB-F23B22A6F84E}" name="Table_2" displayName="Table_2" ref="A3:E21" headerRowDxfId="9" dataDxfId="7" totalsRowDxfId="5" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E21">
+    <sortCondition ref="A3:A21"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BF0FEC36-C0C4-4EB4-9094-CFAEE32D815A}" name="Sprint" dataDxfId="4"/>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD960B5A-D7F9-40BE-85E1-307C40979FFD}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,11 +1254,11 @@
       <c r="A16" s="22">
         <v>2</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>24</v>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="7">
         <v>3</v>
@@ -1269,10 +1272,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
         <v>3</v>
@@ -1286,44 +1289,44 @@
         <v>2</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>2</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>2</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="7">
         <v>9</v>
@@ -1332,40 +1335,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>2</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="4">
-        <f>SUM(D4:D20)</f>
-        <v>89</v>
-      </c>
-      <c r="E22" s="4">
-        <f>SUM(E4:E21)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="4">
+        <f>SUM(D4:D21)</f>
+        <v>92</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SUM(E4:E22)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
